--- a/TestApp/bin/Debug/net6.0-windows/Resources/NP_költségkövető.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/NP_költségkövető.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\NP_2022-II-6_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A7AB36-8444-45BA-A063-9877EF23F299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3101ABC5-353E-48D2-94C7-C6296102849F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4122,7 +4122,7 @@
       <selection activeCell="H12" sqref="H12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
-      <autoFilter ref="A3:L77" xr:uid="{E545BFA3-297A-4160-8F24-A019B2F0CD2A}"/>
+      <autoFilter ref="A3:L77" xr:uid="{D08B00E8-ECC5-48B0-BF0E-80CB7EFE476A}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4136,10 +4136,10 @@
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:Y256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1200" sqref="A1200"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+      <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4528,9 +4528,7 @@
         <v>226</v>
       </c>
       <c r="U7" s="98"/>
-      <c r="V7" s="98">
-        <v>1</v>
-      </c>
+      <c r="V7" s="98"/>
     </row>
     <row r="8" spans="1:25" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
@@ -4598,9 +4596,7 @@
         <v>226</v>
       </c>
       <c r="U8" s="98"/>
-      <c r="V8" s="98">
-        <v>1</v>
-      </c>
+      <c r="V8" s="98"/>
       <c r="W8" s="9" t="str">
         <f>IF(VLOOKUP($R8,'Havi béradatok'!$B:$E,2,FALSE)=D8,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5030,9 +5026,7 @@
         <v>226</v>
       </c>
       <c r="U14" s="98"/>
-      <c r="V14" s="98">
-        <v>1</v>
-      </c>
+      <c r="V14" s="98"/>
     </row>
     <row r="15" spans="1:25" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -5100,9 +5094,7 @@
         <v>226</v>
       </c>
       <c r="U15" s="98"/>
-      <c r="V15" s="98">
-        <v>1</v>
-      </c>
+      <c r="V15" s="98"/>
       <c r="W15" s="9" t="str">
         <f>IF(VLOOKUP($R15,'Havi béradatok'!$B:$E,2,FALSE)=D15,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5728,9 +5720,7 @@
         <v>226</v>
       </c>
       <c r="U24" s="98"/>
-      <c r="V24" s="98">
-        <v>1</v>
-      </c>
+      <c r="V24" s="98"/>
       <c r="W24" s="9" t="str">
         <f>IF(VLOOKUP($R24,'Havi béradatok'!$B:$E,2,FALSE)=D24,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6019,9 +6009,7 @@
         <v>226</v>
       </c>
       <c r="U28" s="98"/>
-      <c r="V28" s="98">
-        <v>1</v>
-      </c>
+      <c r="V28" s="98"/>
       <c r="W28" s="9" t="s">
         <v>236</v>
       </c>
@@ -6097,9 +6085,7 @@
         <v>226</v>
       </c>
       <c r="U29" s="98"/>
-      <c r="V29" s="98">
-        <v>2</v>
-      </c>
+      <c r="V29" s="98"/>
       <c r="W29" s="9" t="str">
         <f>IF(VLOOKUP($R29,'Havi béradatok'!$B:$E,2,FALSE)=D29,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6178,9 +6164,7 @@
         <v>226</v>
       </c>
       <c r="U30" s="98"/>
-      <c r="V30" s="98">
-        <v>2</v>
-      </c>
+      <c r="V30" s="98"/>
       <c r="W30" s="9" t="str">
         <f>IF(VLOOKUP($R30,'Havi béradatok'!$B:$E,2,FALSE)=D30,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6463,9 +6447,7 @@
         <v>226</v>
       </c>
       <c r="U34" s="98"/>
-      <c r="V34" s="98">
-        <v>1</v>
-      </c>
+      <c r="V34" s="98"/>
       <c r="W34" s="9" t="str">
         <f>IF(VLOOKUP($R34,'Havi béradatok'!$B:$E,2,FALSE)=D34,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6547,9 +6529,7 @@
         <v>226</v>
       </c>
       <c r="U35" s="98"/>
-      <c r="V35" s="98">
-        <v>1</v>
-      </c>
+      <c r="V35" s="98"/>
       <c r="W35" s="9" t="str">
         <f>IF(VLOOKUP($R35,'Havi béradatok'!$B:$E,2,FALSE)=D35,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7191,9 +7171,7 @@
         <v>226</v>
       </c>
       <c r="U44" s="98"/>
-      <c r="V44" s="98">
-        <v>1</v>
-      </c>
+      <c r="V44" s="98"/>
       <c r="W44" s="9" t="str">
         <f>IF(VLOOKUP($R44,'Havi béradatok'!$B:$E,2,FALSE)=D44,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7275,9 +7253,7 @@
         <v>226</v>
       </c>
       <c r="U45" s="98"/>
-      <c r="V45" s="98">
-        <v>1</v>
-      </c>
+      <c r="V45" s="98"/>
       <c r="W45" s="9" t="str">
         <f>IF(VLOOKUP($R45,'Havi béradatok'!$B:$E,2,FALSE)=D45,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7709,9 +7685,7 @@
         <v>226</v>
       </c>
       <c r="U51" s="98"/>
-      <c r="V51" s="98">
-        <v>1</v>
-      </c>
+      <c r="V51" s="98"/>
       <c r="W51" s="9" t="str">
         <f>IF(VLOOKUP($R51,'Havi béradatok'!$B:$E,2,FALSE)=D51,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7793,9 +7767,7 @@
         <v>226</v>
       </c>
       <c r="U52" s="98"/>
-      <c r="V52" s="98">
-        <v>1</v>
-      </c>
+      <c r="V52" s="98"/>
       <c r="W52" s="9" t="str">
         <f>IF(VLOOKUP($R52,'Havi béradatok'!$B:$E,2,FALSE)=D52,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8437,9 +8409,7 @@
         <v>226</v>
       </c>
       <c r="U61" s="98"/>
-      <c r="V61" s="98">
-        <v>1</v>
-      </c>
+      <c r="V61" s="98"/>
     </row>
     <row r="62" spans="1:25" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
@@ -8509,9 +8479,7 @@
         <v>226</v>
       </c>
       <c r="U62" s="98"/>
-      <c r="V62" s="98">
-        <v>1</v>
-      </c>
+      <c r="V62" s="98"/>
       <c r="W62" s="9" t="str">
         <f>IF(VLOOKUP($R62,'Havi béradatok'!$B:$E,2,FALSE)=D62,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -9153,9 +9121,7 @@
         <v>226</v>
       </c>
       <c r="U71" s="98"/>
-      <c r="V71" s="98">
-        <v>1</v>
-      </c>
+      <c r="V71" s="98"/>
       <c r="W71" s="9" t="str">
         <f>IF(VLOOKUP($R71,'Havi béradatok'!$B:$E,2,FALSE)=D71,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -9237,9 +9203,7 @@
         <v>226</v>
       </c>
       <c r="U72" s="98"/>
-      <c r="V72" s="98">
-        <v>1</v>
-      </c>
+      <c r="V72" s="98"/>
       <c r="W72" s="9" t="str">
         <f>IF(VLOOKUP($R72,'Havi béradatok'!$B:$E,2,FALSE)=D72,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -9529,9 +9493,7 @@
         <v>226</v>
       </c>
       <c r="U76" s="98"/>
-      <c r="V76" s="98">
-        <v>1</v>
-      </c>
+      <c r="V76" s="98"/>
       <c r="W76" s="9" t="str">
         <f>IF(VLOOKUP($R76,'Havi béradatok'!$B:$E,2,FALSE)=D76,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -9611,9 +9573,7 @@
         <v>226</v>
       </c>
       <c r="U77" s="98"/>
-      <c r="V77" s="98">
-        <v>1</v>
-      </c>
+      <c r="V77" s="98"/>
       <c r="W77" s="9" t="str">
         <f>IF(VLOOKUP($R77,'Havi béradatok'!$B:$E,2,FALSE)=D77,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -10239,9 +10199,7 @@
         <v>226</v>
       </c>
       <c r="U86" s="98"/>
-      <c r="V86" s="98">
-        <v>1</v>
-      </c>
+      <c r="V86" s="98"/>
       <c r="W86" s="9" t="str">
         <f>IF(VLOOKUP($R86,'Havi béradatok'!$B:$E,2,FALSE)=D86,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -10533,9 +10491,7 @@
         <v>226</v>
       </c>
       <c r="U90" s="98"/>
-      <c r="V90" s="98">
-        <v>1</v>
-      </c>
+      <c r="V90" s="98"/>
     </row>
     <row r="91" spans="1:25" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="29" t="s">
@@ -10605,9 +10561,7 @@
         <v>226</v>
       </c>
       <c r="U91" s="98"/>
-      <c r="V91" s="98">
-        <v>1</v>
-      </c>
+      <c r="V91" s="98"/>
       <c r="W91" s="9" t="str">
         <f>IF(VLOOKUP($R91,'Havi béradatok'!$B:$E,2,FALSE)=D91,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -11249,9 +11203,7 @@
         <v>226</v>
       </c>
       <c r="U100" s="98"/>
-      <c r="V100" s="98">
-        <v>1</v>
-      </c>
+      <c r="V100" s="98"/>
       <c r="W100" s="9" t="str">
         <f>IF(VLOOKUP($R100,'Havi béradatok'!$B:$E,2,FALSE)=D100,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -11683,9 +11635,7 @@
         <v>226</v>
       </c>
       <c r="U106" s="98"/>
-      <c r="V106" s="98">
-        <v>1</v>
-      </c>
+      <c r="V106" s="98"/>
       <c r="W106" s="9" t="str">
         <f>IF(VLOOKUP($R106,'Havi béradatok'!$B:$E,2,FALSE)=D106,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -11767,9 +11717,7 @@
         <v>226</v>
       </c>
       <c r="U107" s="98"/>
-      <c r="V107" s="98">
-        <v>1</v>
-      </c>
+      <c r="V107" s="98"/>
       <c r="W107" s="9" t="str">
         <f>IF(VLOOKUP($R107,'Havi béradatok'!$B:$E,2,FALSE)=D107,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -13606,9 +13554,7 @@
         <v>226</v>
       </c>
       <c r="U134" s="98"/>
-      <c r="V134" s="98">
-        <v>1</v>
-      </c>
+      <c r="V134" s="98"/>
       <c r="W134" s="9" t="str">
         <f>IF(VLOOKUP($R134,'Havi béradatok'!$B:$E,2,FALSE)=D134,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -13689,9 +13635,7 @@
         <v>226</v>
       </c>
       <c r="U135" s="98"/>
-      <c r="V135" s="98">
-        <v>1</v>
-      </c>
+      <c r="V135" s="98"/>
       <c r="W135" s="9" t="str">
         <f>IF(VLOOKUP($R135,'Havi béradatok'!$B:$E,2,FALSE)=D135,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -14323,9 +14267,7 @@
         <v>226</v>
       </c>
       <c r="U144" s="98"/>
-      <c r="V144" s="98">
-        <v>1</v>
-      </c>
+      <c r="V144" s="98"/>
       <c r="W144" s="9" t="s">
         <v>236</v>
       </c>
@@ -14402,9 +14344,7 @@
         <v>226</v>
       </c>
       <c r="U145" s="98"/>
-      <c r="V145" s="98">
-        <v>2</v>
-      </c>
+      <c r="V145" s="98"/>
       <c r="W145" s="9" t="str">
         <f>IF(VLOOKUP($R145,'Havi béradatok'!$B:$E,2,FALSE)=D145,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -14484,9 +14424,7 @@
         <v>226</v>
       </c>
       <c r="U146" s="98"/>
-      <c r="V146" s="98">
-        <v>2</v>
-      </c>
+      <c r="V146" s="98"/>
       <c r="W146" s="9" t="str">
         <f>IF(VLOOKUP($R146,'Havi béradatok'!$B:$E,2,FALSE)=D146,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -16817,7 +16755,7 @@
       <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
       <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
       <pageSetup paperSize="9" scale="53" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A4:AV400" xr:uid="{1DB3E0BF-42D9-4856-BDFD-349AF6CE681F}">
+      <autoFilter ref="A4:AV400" xr:uid="{459221A6-2D67-4A4B-B93E-EFEADC6A7722}">
         <filterColumn colId="6">
           <filters>
             <filter val="2019.06"/>
@@ -17391,7 +17329,7 @@
       <selection activeCell="L44" sqref="L44"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-      <autoFilter ref="A41:N455" xr:uid="{B10C91D4-77C6-4F03-BA40-228F8D34DCF9}"/>
+      <autoFilter ref="A41:N455" xr:uid="{AD98A02D-AD8F-4EFD-90E6-DD16A095AF25}"/>
     </customSheetView>
   </customSheetViews>
   <dataValidations count="4">
